--- a/Tables/Sum_Stat_Table_Types_transposed.xlsx
+++ b/Tables/Sum_Stat_Table_Types_transposed.xlsx
@@ -833,19 +833,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>55.10213160773435</v>
+        <v>55.233620270625813</v>
       </c>
       <c r="G3" s="2">
-        <v>23.01442343577224</v>
+        <v>23.069342105458752</v>
       </c>
       <c r="I3" s="3">
-        <v>16.105667398408418</v>
+        <v>16.144099898375337</v>
       </c>
       <c r="K3" s="6">
-        <v>1.9034842342687499</v>
+        <v>1.6693992848121402</v>
       </c>
       <c r="M3" s="9">
-        <v>3.8742933238162398</v>
+        <v>3.8835384407279503</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
         <v>6100</v>
       </c>
       <c r="K4" s="7">
-        <v>-11800</v>
+        <v>-12700</v>
       </c>
       <c r="M4" s="10">
         <v>1200</v>
@@ -870,7 +870,7 @@
         <v>15400</v>
       </c>
       <c r="K5" s="8">
-        <v>22500</v>
+        <v>23800</v>
       </c>
       <c r="M5" s="11">
         <v>11500</v>
@@ -887,7 +887,7 @@
         <v>71.93283449245294</v>
       </c>
       <c r="K7" s="15">
-        <v>53.422665420172422</v>
+        <v>46.764810637540073</v>
       </c>
       <c r="M7" s="18">
         <v>59.150526933578298</v>
@@ -901,7 +901,7 @@
         <v>2700</v>
       </c>
       <c r="K8" s="16">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="M8" s="19">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>8600</v>
       </c>
       <c r="K9" s="17">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="M9" s="20">
         <v>4500</v>
@@ -932,7 +932,7 @@
         <v>44.332488291152828</v>
       </c>
       <c r="K11" s="24">
-        <v>41.944531006544103</v>
+        <v>43.146741066128449</v>
       </c>
       <c r="M11" s="27">
         <v>81.401668835642653</v>
@@ -946,7 +946,7 @@
         <v>2400</v>
       </c>
       <c r="K12" s="25">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="M12" s="28">
         <v>1700</v>
@@ -960,7 +960,7 @@
         <v>8300</v>
       </c>
       <c r="K13" s="26">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="M13" s="29">
         <v>11400</v>
@@ -977,7 +977,7 @@
         <v>7.0240806329836492</v>
       </c>
       <c r="K15" s="33">
-        <v>12.470136075620649</v>
+        <v>9.4592188056511901</v>
       </c>
       <c r="M15" s="36">
         <v>13.498685855724821</v>
@@ -1022,7 +1022,7 @@
         <v>14.324692623579748</v>
       </c>
       <c r="K19" s="42">
-        <v>23.553547314843669</v>
+        <v>22.126914401044758</v>
       </c>
       <c r="M19" s="45">
         <v>32.058740973232283</v>
@@ -1036,7 +1036,7 @@
         <v>900</v>
       </c>
       <c r="K20" s="43">
-        <v>-2700</v>
+        <v>-3000</v>
       </c>
       <c r="M20" s="46">
         <v>-300</v>
@@ -1050,7 +1050,7 @@
         <v>5600</v>
       </c>
       <c r="K21" s="44">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="M21" s="47">
         <v>3500</v>
